--- a/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16812" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16829" uniqueCount="415">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1534,10 +1534,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第三步：我就运动15分钟  【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第四步 6：30 朗读 15分钟  【一级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1607,6 +1603,128 @@
   </si>
   <si>
     <t>工作区：专注与沟通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘庆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx小说</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯视频</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：打开keep跟踪运动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第四关：19:00 120分钟 阅读与写作 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关：18:00 120分钟 阅读与写作 【五级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  承诺：走进餐厅 看起吃饭流程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：走进餐厅 看起吃饭流程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：走进做地铁，开启回家流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖   预先承诺：清理桌面。开启阅读流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺：清理桌面。开启阅读流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺：清理桌面。开启阅读流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ✖ 预先承诺：清理桌面。开启阅读流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关：很轻松：打开开发工具</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关 ：轻松：打开任务清单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果游戏高手，体育达人，音乐，日常沟通说话变做事情 本质无数练习。不看看看</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关 ：极度困难，关闭声音，沉迷 游戏结战略，综艺传递快乐 ，知识画面，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：小boss 与周围人讨论，汇报工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五关：大 boss 分享</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：困难 关闭网络，这样不会游戏， 体育 综艺，动漫 无数画面冲击。【浏览器】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>做听，看 在高深战略，知识跟你无关 这个世界没有参与毫无精彩，</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>youtue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx漫画 xx视频 解锁谷歌 翻墙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：---勇气 勇气勇气  感觉 太困，我睡觉 心里让睡觉2小时 拖延2小时。你目标</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖ 承诺：地铁/冥想/中午 补睡觉的时间 ，第一时间 不看手机消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第二步：只要我睡醒，马上穿衣服，洗刷【10级怪兽 回去继续睡觉】
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：打开keep跟着运动 【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一步 ：7点起床，闹钟响起后，打开灯。【大boss 战斗已经开始了】
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1893,7 +2011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2144,6 +2262,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2163,7 +2292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2319,9 +2448,6 @@
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2335,6 +2461,16 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2831,19 +2967,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="84" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2854,13 +2990,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -2869,19 +3005,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="81" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2892,13 +3028,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -2907,17 +3043,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="81" t="s">
         <v>357</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="81" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2928,13 +3064,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -2943,19 +3079,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="81" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="81" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -2966,13 +3102,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -2981,45 +3117,45 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="81" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3320,13 +3456,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -3337,36 +3473,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -3374,15 +3510,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="96" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -3396,7 +3532,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3544,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -3416,78 +3552,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="97"/>
+      <c r="D14" s="100"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="97"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -3504,42 +3640,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="94" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -3547,10 +3683,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3646,13 +3782,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3660,36 +3796,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3697,15 +3833,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="96" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3719,7 +3855,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -3731,7 +3867,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -3739,23 +3875,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3764,57 +3900,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="99" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="97"/>
+      <c r="D13" s="100"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="97"/>
+      <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="97"/>
+      <c r="D15" s="100"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="97"/>
+      <c r="D16" s="100"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="97"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -3831,48 +3967,48 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="108" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="94" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3910,10 +4046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY38"/>
+  <dimension ref="A1:WRY49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3928,13 +4064,13 @@
   <sheetData>
     <row r="1" spans="1:16041" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>352</v>
@@ -52052,9 +52188,9 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="47" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -68097,29 +68233,29 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="72" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>184</v>
       </c>
       <c r="J3" s="34" t="s">
@@ -68130,12 +68266,12 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="41" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>358</v>
@@ -68163,12 +68299,12 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="36" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>355</v>
@@ -68196,9 +68332,9 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>355</v>
@@ -68229,7 +68365,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="36" t="s">
         <v>356</v>
       </c>
@@ -68262,7 +68398,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="36" t="s">
         <v>191</v>
       </c>
@@ -68295,14 +68431,14 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>244</v>
       </c>
       <c r="E9" s="57" t="s">
@@ -68323,191 +68459,259 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:16041" s="73" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="76" t="s">
+    <row r="10" spans="1:16041" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91"/>
+      <c r="B10" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="73" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:16041" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
+    <row r="11" spans="1:16041" ht="51.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="91"/>
       <c r="B11" s="36" t="s">
         <v>190</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="88"/>
+    <row r="12" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="91"/>
       <c r="B12" s="38" t="s">
         <v>337</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>294</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
+    <row r="13" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
       <c r="B13" s="36" t="s">
         <v>349</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>296</v>
+        <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="88"/>
-      <c r="B14" s="36" t="s">
-        <v>338</v>
+    <row r="14" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="91"/>
+      <c r="B14" s="44" t="s">
+        <v>391</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>243</v>
+        <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="88"/>
-      <c r="B15" s="36" t="s">
-        <v>345</v>
+    <row r="15" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="91"/>
+      <c r="B15" s="44" t="s">
+        <v>392</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="88"/>
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="91"/>
+      <c r="B16" t="s">
         <v>339</v>
       </c>
+      <c r="C16" s="77" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="91"/>
       <c r="B17" t="s">
         <v>340</v>
       </c>
+      <c r="C17" s="77" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="91"/>
       <c r="B18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+    <row r="19" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="91" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="91"/>
+      <c r="B20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="91"/>
+      <c r="B21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="91"/>
+      <c r="B22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="91"/>
+      <c r="B23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="91"/>
+      <c r="B24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="91"/>
+      <c r="B25" t="s">
         <v>373</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>371</v>
-      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="88"/>
-      <c r="B20" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="91"/>
+      <c r="B29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="91"/>
+      <c r="B30" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="88"/>
-      <c r="B21" t="s">
-        <v>376</v>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="91"/>
+      <c r="B31" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="91"/>
+      <c r="B32" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="88"/>
-      <c r="B23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="88"/>
-      <c r="B24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="88"/>
-      <c r="B25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88" t="s">
-        <v>382</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="88"/>
-      <c r="B31" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="88"/>
-      <c r="B32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
+      <c r="A33" s="91"/>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
+      <c r="A34" s="91"/>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
+      <c r="A35" s="91"/>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>385</v>
-      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="91"/>
+      <c r="B39" s="78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="91"/>
+      <c r="B40" s="78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="91"/>
+      <c r="B41" s="78" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="91"/>
+      <c r="B42" s="79" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="91"/>
+      <c r="B43" s="78" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="91"/>
+      <c r="B44" s="80" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="91"/>
+      <c r="B45" s="78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="91"/>
+      <c r="B46" s="78" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="91"/>
+      <c r="B47" s="78"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="91"/>
+      <c r="B48" s="78"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="91"/>
+      <c r="B49" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A18"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A38:A49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68537,13 +68741,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="115" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68554,36 +68758,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="117" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="118"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -68591,15 +68795,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="96" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -68613,7 +68817,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="94"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -68625,7 +68829,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -68633,83 +68837,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="91"/>
+      <c r="D10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="96" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="92" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="93"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="94"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="93"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="90"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="93"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="93"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -68726,30 +68930,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="108" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="100"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -68831,20 +69035,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -68854,8 +69059,11 @@
       <c r="C1" t="s">
         <v>365</v>
       </c>
+      <c r="D1" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="69">
         <v>44602</v>
       </c>
@@ -68864,6 +69072,90 @@
       </c>
       <c r="C2" s="33">
         <v>0.4055555555555555</v>
+      </c>
+      <c r="D2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>44604</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>44605</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>44606</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>44607</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>44608</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>44609</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -69230,13 +69522,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -69244,11 +69536,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -69286,12 +69578,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="123" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -69484,19 +69776,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -69881,7 +70173,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="126" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -69892,19 +70184,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="124"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="124"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="127" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -69915,14 +70207,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="127" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -69933,14 +70225,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="127" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -69951,7 +70243,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="124"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
@@ -70407,18 +70699,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -70443,18 +70735,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="127"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -70469,18 +70761,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="128"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -70511,48 +70803,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="125"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="128"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="125"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="128"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="129"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="132"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="129"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="132"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -70581,22 +70873,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
-      <c r="B21" s="132" t="s">
+      <c r="A21" s="128"/>
+      <c r="B21" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="D21" s="128" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="125"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="128"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">

--- a/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="起床等级划分" sheetId="2" r:id="rId1"/>
-    <sheet name="一天作记录" sheetId="11" r:id="rId2"/>
-    <sheet name="一周记录" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
+    <sheet name="晨间日记" sheetId="13" r:id="rId2"/>
+    <sheet name="起床等级划分" sheetId="2" r:id="rId3"/>
     <sheet name="起床记录统计" sheetId="12" r:id="rId4"/>
-    <sheet name="每天睡觉todo" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="习惯卡" sheetId="8" state="hidden" r:id="rId6"/>
-    <sheet name="2分钟养成一习惯" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="check" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="作息习惯卡woop" sheetId="3" state="hidden" r:id="rId9"/>
-    <sheet name="下班浪费3小时计划 " sheetId="5" state="hidden" r:id="rId10"/>
-    <sheet name="2021年的第 30" sheetId="4" state="hidden" r:id="rId11"/>
-    <sheet name="2021年的第 29 周" sheetId="1" state="hidden" r:id="rId12"/>
+    <sheet name="月报" sheetId="14" r:id="rId5"/>
+    <sheet name="一周记录" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="每天睡觉todo" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="习惯卡" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="2分钟养成一习惯" sheetId="7" state="hidden" r:id="rId9"/>
+    <sheet name="check" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="作息习惯卡woop" sheetId="3" state="hidden" r:id="rId11"/>
+    <sheet name="下班浪费3小时计划 " sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="2021年的第 30" sheetId="4" state="hidden" r:id="rId13"/>
+    <sheet name="2021年的第 29 周" sheetId="1" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">一周记录!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">一周记录!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16829" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16834" uniqueCount="436">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1478,19 +1480,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✔  预先承诺：去公园跑步 300米 ，</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>✖ 承诺：只要闹钟响起，就不要在躺回去，继续睡觉。【地狱】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>✖ 承诺：只要完成朗读15。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第五步：7：30  地铁 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1531,10 +1525,6 @@
   </si>
   <si>
     <t>入睡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四步 6：30 朗读 15分钟  【一级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1626,15 +1616,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✖ 承诺：打开keep跟踪运动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">第四关：19:00 120分钟 阅读与写作 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五关：18:00 120分钟 阅读与写作 【五级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1647,14 +1629,6 @@
   </si>
   <si>
     <t>✖ 承诺：走进做地铁，开启回家流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖   预先承诺：清理桌面。开启阅读流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖  预先承诺：清理桌面。开启阅读流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1714,17 +1688,129 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">第二步：只要我睡醒，马上穿衣服，洗刷【10级怪兽 回去继续睡觉】
+    <t>晚上睡前：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>午睡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭屏幕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.手离开键盘 ，眼睛离开屏幕 ，具体行动 关闭屏幕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 打开 本地冥想音乐。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间到了一定去做</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关：坐姿正确。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备：回到家手机放客厅。回到公司手机抽屉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 预先承诺： 你不想看浏览器 ，搜索引擎不允许 搜索 xx小时手，你不要去做了 后门不做10%放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不然：你起床 看手机和电脑 熬夜3小时 ，第二天起不来，手机用完放客厅。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样做不行：放到书桌上充电，自己心里念念不忘，然后开始了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wangcy6.github.io/post/ARTS/2022/1/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周一次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一步 ：7点起床，我睡醒，马上穿衣服，打开灯 。 【大boss 战斗已经开始了】
 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>第三步：打开keep跟着运动 【一级怪兽】</t>
+    <t xml:space="preserve">第二步：打开keep 跟着活动15分钟【10级怪兽 回去继续睡觉】
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">第一步 ：7点起床，闹钟响起后，打开灯。【大boss 战斗已经开始了】
-</t>
+    <t>第三步  7：30  地铁 最后一公里10分钟  【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步：8:30-10:30点，每天坚持写代码100分钟 【二级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六关：21点--22点 保证一在客厅（回家第一时间手机放客厅）【六级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七关：22点-23点  一定上床【超级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关： 准备：12点中午专注吃饭，远离手机20分钟  【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：准备 ：早下班，下班电脑放公司 ，开启地铁模式【三级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关： 准备： 6点晚上专注吃饭，远离手机20分钟【二级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺：清理桌面。开启阅读流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 预先承诺： 你不想看浏览器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1732,7 +1818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,8 +2008,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2010,8 +2112,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2273,8 +2380,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2291,8 +2413,12 @@
     <xf numFmtId="0" fontId="23" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2456,9 +2582,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="20" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2472,10 +2595,24 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="21" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2499,17 +2636,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2517,14 +2675,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2562,30 +2726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2616,41 +2756,44 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" xfId="7" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
     <cellStyle name="好" xfId="4" builtinId="26"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2928,1133 +3071,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:WRY50"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="43.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="16">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="13" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="33">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D1" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="E1" s="33">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F1" s="33">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G1" s="55">
-        <v>0.875</v>
-      </c>
-      <c r="H1" s="33">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="I1" s="33">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J1" s="55">
-        <v>0.25</v>
-      </c>
-      <c r="K1" s="33">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L1" s="33">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M1" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="N1" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="118"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="94"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="100"/>
-    </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14">
-        <f>B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="100"/>
-    </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="100"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="100"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-    </row>
-    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-    </row>
-    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.25" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="118"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="94"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-    </row>
-    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="100"/>
-    </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="100"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="100"/>
-    </row>
-    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="100"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="100"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="101"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-    </row>
-    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A12:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="78.25" customWidth="1"/>
     <col min="4" max="4" width="65.5" customWidth="1"/>
     <col min="5" max="5" width="55.375" customWidth="1"/>
@@ -4064,13 +3089,13 @@
   <sheetData>
     <row r="1" spans="1:16041" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>352</v>
@@ -52188,9 +51213,9 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
+      <c r="A2" s="98"/>
       <c r="B2" s="47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -68233,15 +67258,15 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="71" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>263</v>
@@ -68266,15 +67291,15 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="41" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>263</v>
@@ -68299,15 +67324,15 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="36" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>264</v>
@@ -68331,387 +67356,762 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>204</v>
-      </c>
+    <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98"/>
+      <c r="B6" s="146" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="34"/>
       <c r="H6" s="36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>176</v>
-      </c>
+      <c r="J6" s="38"/>
       <c r="K6" s="36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:16041" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="90"/>
-      <c r="B7" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>168</v>
-      </c>
+    <row r="7" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="80"/>
+      <c r="B7" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:16041" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="90"/>
-      <c r="B8" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>168</v>
-      </c>
+    <row r="8" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="80"/>
+      <c r="B8" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="82"/>
     </row>
     <row r="9" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="90"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="74" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="36" t="s">
-        <v>169</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D9" s="74"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:16041" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="75" t="s">
-        <v>166</v>
+      <c r="A10" s="99"/>
+      <c r="B10" s="88" t="s">
+        <v>405</v>
       </c>
       <c r="C10" s="73" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:16041" ht="51.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
+    <row r="11" spans="1:16041" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="99"/>
       <c r="B11" s="36" t="s">
-        <v>190</v>
+        <v>431</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
+    <row r="12" spans="1:16041" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="99"/>
       <c r="B12" s="38" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+    <row r="13" spans="1:16041" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99"/>
       <c r="B13" s="36" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
+    <row r="14" spans="1:16041" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99"/>
       <c r="B14" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>397</v>
-      </c>
     </row>
-    <row r="15" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>396</v>
+    <row r="15" spans="1:16041" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="99"/>
+      <c r="B15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91"/>
+      <c r="A16" s="99"/>
       <c r="B16" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>398</v>
+        <v>430</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91"/>
-      <c r="B17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>399</v>
+    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="99"/>
+      <c r="B17" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
-      <c r="B18" t="s">
-        <v>341</v>
+    <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="84"/>
+      <c r="B18" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>370</v>
+      <c r="A19" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
+      <c r="A20" s="99"/>
       <c r="B20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="91"/>
+      <c r="A21" s="99"/>
       <c r="B21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
+      <c r="A22" s="99"/>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="91"/>
+      <c r="A23" s="99"/>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="91"/>
+      <c r="A24" s="99"/>
       <c r="B24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="91"/>
+      <c r="A25" s="99"/>
       <c r="B25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>380</v>
+      <c r="A28" s="99" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="91"/>
+      <c r="A29" s="99"/>
       <c r="B29" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="91"/>
+      <c r="A30" s="99"/>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>372</v>
+      </c>
+      <c r="C30" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="91"/>
+      <c r="A31" s="99"/>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="C31" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="91"/>
+      <c r="A32" s="99"/>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="C32" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="91"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="99"/>
       <c r="B33" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="C33" t="s">
+        <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="99"/>
       <c r="B34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="99"/>
+      <c r="B35" t="s">
         <v>373</v>
       </c>
+      <c r="C35" t="s">
+        <v>435</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
-      <c r="B35" t="s">
-        <v>376</v>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="99" t="s">
+        <v>380</v>
+      </c>
+      <c r="B38" s="85" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>384</v>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="99"/>
+      <c r="B39" s="75" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
-      <c r="B39" s="78" t="s">
+    <row r="40" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="99"/>
+      <c r="B40" s="77" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="99"/>
+      <c r="B41" s="77" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="99"/>
+      <c r="B42" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="C42" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="99"/>
+      <c r="B43" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="99"/>
+      <c r="B44" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="99"/>
+      <c r="B45" s="79" t="s">
         <v>400</v>
       </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
-      <c r="B40" s="78" t="s">
-        <v>401</v>
+    <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="99"/>
+      <c r="B46" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="91"/>
-      <c r="B41" s="78" t="s">
-        <v>406</v>
+    <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="99"/>
+      <c r="B47" s="77" t="s">
+        <v>398</v>
+      </c>
+      <c r="C47" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
-      <c r="B42" s="79" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="91"/>
-      <c r="B43" s="78" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="91"/>
-      <c r="B44" s="80" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="91"/>
-      <c r="B45" s="78" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
-      <c r="B46" s="78" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="91"/>
-      <c r="B47" s="78"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
-      <c r="B48" s="78"/>
+    <row r="48" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="99"/>
+      <c r="B48" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="91"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="77"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="99"/>
+      <c r="B50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A17"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A38:A50"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1"/>
+    <hyperlink ref="B28" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3" location="%E6%8C%91%E6%88%9803%E6%9C%9F%E6%9C%9B%E7%BB%93%E6%9E%9C22%E7%82%B9%E8%AF%A5%E7%9D%A1%E8%A7%89%E6%97%B6%E5%80%99%E5%8E%BB%E7%9D%A1%E8%A7%89"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="139"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="139"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="139"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="144"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="142"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="140" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="140"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+    </row>
+    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="136" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="139"/>
+      <c r="D15" s="136"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="136"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="136"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="140"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="140"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="136"/>
+      <c r="B21" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="136"/>
+    </row>
+    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68719,7 +68119,1371 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="13" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="33">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D1" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="33">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F1" s="33">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G1" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="H1" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I1" s="33">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J1" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="K1" s="33">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L1" s="33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M1" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="N1" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="111"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="112"/>
+      <c r="B8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="108"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="112"/>
+      <c r="B13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="116"/>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="112"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="116"/>
+      <c r="E14">
+        <f>B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="112"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="116"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="112"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="116"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="112"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="117"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+    </row>
+    <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+    </row>
+    <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.25" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="107"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="111"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="112"/>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="108"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="112"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="116"/>
+    </row>
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="112"/>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="116"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="112"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="116"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="112"/>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="116"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="112"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="116"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="117"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+    </row>
+    <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="107"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="69">
+        <v>44610</v>
+      </c>
+      <c r="B2" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="43.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="16">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="69">
+        <v>44602</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>44604</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>44605</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>44606</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>44607</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>44608</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>44609</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="C8" s="33">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>44610</v>
+      </c>
+      <c r="B9" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>44614</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C10" s="33">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
@@ -68741,13 +69505,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="104" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68758,36 +69522,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="116"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="118"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="111"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="108" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -68795,15 +69559,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="106" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -68817,7 +69581,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -68829,7 +69593,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -68837,83 +69601,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="108"/>
+      <c r="C10" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="94"/>
+      <c r="D10" s="108"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="106" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="113" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="93"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="114"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="93"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="114"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
+      <c r="A15" s="112"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="93"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="114"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="93"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="114"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="97"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="93"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="114"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="93"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="114"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -68930,30 +69694,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="124" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -69004,20 +69768,6 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -69026,6 +69776,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69033,138 +69797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="28.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>44602</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="C2" s="33">
-        <v>0.4055555555555555</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="69">
-        <v>44604</v>
-      </c>
-      <c r="B3" s="33">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="C3" s="33">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="69">
-        <v>44605</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="69">
-        <v>44606</v>
-      </c>
-      <c r="B5" s="33">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="69">
-        <v>44607</v>
-      </c>
-      <c r="B6" s="33">
-        <v>2</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
-        <v>44608</v>
-      </c>
-      <c r="B7" s="33">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C7" s="33">
-        <v>0.375</v>
-      </c>
-      <c r="D7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="69">
-        <v>44609</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="C8" s="33">
-        <v>0.375</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -69188,7 +69821,7 @@
         <v>266</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>342</v>
@@ -69220,7 +69853,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>335</v>
@@ -69410,7 +70043,7 @@
         <v>339</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>234</v>
@@ -69503,10 +70136,10 @@
     </row>
     <row r="11" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
@@ -69522,13 +70155,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -69536,11 +70169,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -69578,12 +70211,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="131" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -69776,19 +70409,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="120"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -70118,7 +70751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -70173,7 +70806,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="134" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -70184,19 +70817,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="127"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="127"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="135" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -70207,14 +70840,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="127"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="135" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -70225,14 +70858,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="127"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="135" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -70243,7 +70876,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="127"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
@@ -70548,7 +71181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -70630,367 +71263,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="130"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="132" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="133" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-    </row>
-    <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="128"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="128"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="132"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="132"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="128"/>
-      <c r="B21" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="128" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="128"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="128"/>
-    </row>
-    <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16834" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16834" uniqueCount="437">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1813,6 +1813,10 @@
     <t>✔ 预先承诺： 你不想看浏览器</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">✖  预先承诺：登陆10.112.178.189 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3073,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WRY50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -67654,7 +67658,7 @@
         <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16834" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16842" uniqueCount="456">
   <si>
     <t>为此你做了什么</t>
   </si>
@@ -1536,10 +1536,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>餐厅区--吃饭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>环境场</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1549,10 +1545,6 @@
   </si>
   <si>
     <t>第五关：极度困难：看视频超过4小时，你准备整个晚上，白天都看</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一关：很轻松： 吃饭前把电脑和手机拿出卧室，远离视野</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1573,10 +1565,6 @@
   </si>
   <si>
     <t>一个综艺时间。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动区-跑步</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1616,10 +1604,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">第四关：19:00 120分钟 阅读与写作 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>✖  承诺：走进餐厅 看起吃饭流程。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1632,19 +1616,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>✖  预先承诺：清理桌面。开启阅读流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ✖ 预先承诺：清理桌面。开启阅读流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第一关：很轻松：打开开发工具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关 ：轻松：打开任务清单</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1677,34 +1653,6 @@
   </si>
   <si>
     <t>xx漫画 xx视频 解锁谷歌 翻墙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：---勇气 勇气勇气  感觉 太困，我睡觉 心里让睡觉2小时 拖延2小时。你目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>✖ 承诺：地铁/冥想/中午 补睡觉的时间 ，第一时间 不看手机消息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上睡前：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>午睡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭屏幕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.手离开键盘 ，眼睛离开屏幕 ，具体行动 关闭屏幕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 打开 本地冥想音乐。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1748,61 +1696,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第一步 ：7点起床，我睡醒，马上穿衣服，打开灯 。 【大boss 战斗已经开始了】
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">第二步：打开keep 跟着活动15分钟【10级怪兽 回去继续睡觉】
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三步  7：30  地铁 最后一公里10分钟  【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四步：8:30-10:30点，每天坚持写代码100分钟 【二级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六关：21点--22点 保证一在客厅（回家第一时间手机放客厅）【六级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第七关：22点-23点  一定上床【超级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一关： 准备：12点中午专注吃饭，远离手机20分钟  【一级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第三关：准备 ：早下班，下班电脑放公司 ，开启地铁模式【三级怪兽】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二关： 准备： 6点晚上专注吃饭，远离手机20分钟【二级怪兽】</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1817,12 +1711,185 @@
     <t xml:space="preserve">✖  预先承诺：登陆10.112.178.189 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>✖ 承诺：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第一步 ：只要我醒来，马上穿衣服，开灯  【7点大boss 战斗已经开始了】
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔承诺：开灯后，穿好衣服  在关闭闹钟，不然 6点 7点 太困，太黑 也做到。继续睡觉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第二步：只要洗刷后，你开始 5分钟朗读打卡【一级怪兽】
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步：8:30-10:30点，每天坚持写代码120源码阅读。【二级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 预先承诺  只要每天11点 12点 甚至10点30公司 上午 白白浪费了6个小时。必须提前三个小时。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步  7：30  只要进入地铁 跟着keep 教程 呼吸放松   【一级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 承诺： 6点 7点 8点 9点 太困拖延不起床 放在这里。床上也睡不踏实</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  承诺：走进餐厅 看起吃饭流程。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四关：地狱模式：看10个动漫，3个综艺，消费全部，还离开。马上23点 0点 1点 2点 继续。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 你为什么看电脑 和手机 3小时到半夜，因为电脑在哪里，因为电脑在哪里</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走进餐厅 看起吃饭流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>止损来得及，明天一天，下周，下一个月 一年 每天等着解决。背后平台商家就是刽子手，吸血鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关：困难模式：看了一个动漫，一个综艺 之后，止损来得及。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从声音 画面 距离 这才刚刚开始 用15分钟。后面3个小时 6小时等着你。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用创造代替消费。拖延，后悔，自暴自弃，走神一切 时间黑洞 隐藏着没有实现的dram，虚假快乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭看睡觉看走隐藏着没有实现的dram【用创造真正快乐代替消费虚假快乐】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们就是为看一眼ad，还有吃饭，牺牲几百个人生命时间，牺牲要做事情【只要平台就是这样 】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡前 看微信消息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">微信 直播  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关：很轻松：只要下地铁,电梯  就开始准备 手机和电脑放客厅 【环境场】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关：轻松：  只要进入厨房 同时 手机和电脑从卧室拿到客厅，保证餐桌干净【环境场】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✖  预先承诺：时间到了，无论 学习 运气 还是其他时期，必须中断 来完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最关键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备：12点中午专注吃饭，远离手机20分钟  【惯性定理】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备： 6点晚上专注吃饭，远离手机20分钟【惯性定理】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔ 预先承诺 这里不是打开电脑学知识和写代码。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个挑战：19:00-21点  120分钟 阅读与写作 。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个挑战：21点跟着keep做腹肌训练和肩颈训练，完成后 手机放客厅。【超级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个挑战：22点用60分钟时间完成上床动作【超级怪兽】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四个挑战：23点睡：如果睡不着阅读15分钟，【大boss最后一关】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上睡前固定流程：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关 ：轻松：打开任务清单：上午代码，下午 沟通与探索  晚上 复盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD-回顾</t>
+  </si>
+  <si>
+    <t>用60分钟一次听完毕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>用时（分钟）</t>
+  </si>
+  <si>
+    <t>任务记录</t>
+  </si>
+  <si>
+    <t>反省</t>
+  </si>
+  <si>
+    <t>打断</t>
+  </si>
+  <si>
+    <t>不暂停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2028,8 +2095,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,8 +2206,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EEFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2399,8 +2490,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF135200"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF135200"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF135200"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF135200"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2421,8 +2555,11 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2599,21 +2736,34 @@
     <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="22" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="21" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="24" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2642,12 +2792,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2787,13 +2931,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="23" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
     <cellStyle name="好" xfId="4" builtinId="26"/>
+    <cellStyle name="计算" xfId="8" builtinId="22"/>
     <cellStyle name="警告文本" xfId="3" builtinId="11"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
     <cellStyle name="输出" xfId="5" builtinId="21"/>
@@ -3075,15 +3234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WRY50"/>
+  <dimension ref="A1:WRY49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="2" max="2" width="80.875" customWidth="1"/>
     <col min="3" max="3" width="78.25" customWidth="1"/>
     <col min="4" max="4" width="65.5" customWidth="1"/>
     <col min="5" max="5" width="55.375" customWidth="1"/>
@@ -3093,13 +3252,13 @@
   <sheetData>
     <row r="1" spans="1:16041" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>366</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>352</v>
@@ -51217,7 +51376,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67262,12 +67421,12 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="98"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="71" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>353</v>
@@ -67295,12 +67454,12 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="41" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>356</v>
@@ -67328,12 +67487,12 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="36" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>354</v>
@@ -67361,12 +67520,12 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="146" t="s">
-        <v>428</v>
+      <c r="A6" s="92"/>
+      <c r="B6" s="89" t="s">
+        <v>415</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="D6" s="74" t="s">
         <v>244</v>
@@ -67389,374 +67548,357 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
-      <c r="B7" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="82"/>
+    <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>422</v>
+      </c>
     </row>
-    <row r="8" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="82"/>
+    <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A8" s="93"/>
+      <c r="B8" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>421</v>
+      </c>
     </row>
-    <row r="9" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="74" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="74" t="s">
+    <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="93"/>
+      <c r="B9" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="93"/>
+      <c r="B10" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A11" s="93"/>
+      <c r="B11" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="86"/>
+    </row>
+    <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A12" s="93"/>
+      <c r="B12" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="86"/>
+    </row>
+    <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A13" s="93"/>
+      <c r="B13" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="86"/>
+    </row>
+    <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A14" s="93"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="86"/>
+    </row>
+    <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A15" s="93"/>
+      <c r="B15" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
+      <c r="A16" s="93"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="86"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="93"/>
+      <c r="B17" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="86"/>
+    </row>
+    <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="93"/>
+      <c r="B18" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="93"/>
+      <c r="B19" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="93"/>
+      <c r="B20" s="87" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="93"/>
+      <c r="B21" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="93"/>
+      <c r="B22" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="93"/>
+      <c r="B23" s="91" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="85"/>
+      <c r="B25" s="91" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="84"/>
+      <c r="B26" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="82"/>
-    </row>
-    <row r="10" spans="1:16041" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16041" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16041" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16041" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="99"/>
-      <c r="B13" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16041" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="99"/>
-      <c r="B14" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16041" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C15" s="76" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16041" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" t="s">
-        <v>430</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="99"/>
-      <c r="B21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="99"/>
-      <c r="B22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="99"/>
-      <c r="B23" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
-      <c r="B24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
-      <c r="B25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="99" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>377</v>
+      <c r="C28" s="36" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
+      <c r="A29" s="93"/>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
+      <c r="A30" s="93"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
       <c r="C30" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="99"/>
+      <c r="A31" s="93"/>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
+      <c r="A32" s="93"/>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C32" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="99"/>
+      <c r="A33" s="93"/>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C33" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
+      <c r="A34" s="93"/>
       <c r="B34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C34" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="99"/>
-      <c r="B35" t="s">
-        <v>373</v>
-      </c>
-      <c r="C35" t="s">
-        <v>435</v>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="99" t="s">
-        <v>380</v>
-      </c>
-      <c r="B38" s="85" t="s">
-        <v>381</v>
+      <c r="A38" s="93"/>
+      <c r="B38" s="75" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="99"/>
-      <c r="B39" s="75" t="s">
-        <v>412</v>
+    <row r="39" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="93"/>
+      <c r="B39" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="77" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="C40" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="77" t="s">
-        <v>399</v>
+      <c r="A42" s="93"/>
+      <c r="B42" s="78" t="s">
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
-      <c r="B43" s="78" t="s">
-        <v>395</v>
+      <c r="A43" s="93"/>
+      <c r="B43" s="77" t="s">
+        <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="77" t="s">
-        <v>396</v>
+      <c r="A44" s="93"/>
+      <c r="B44" s="79" t="s">
+        <v>394</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
-      <c r="B45" s="79" t="s">
-        <v>400</v>
+      <c r="A45" s="93"/>
+      <c r="B45" s="77" t="s">
+        <v>391</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="77" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C46" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
+    <row r="47" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="93"/>
       <c r="B47" s="77" t="s">
         <v>398</v>
       </c>
       <c r="C47" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="77" t="s">
-        <v>411</v>
-      </c>
-      <c r="C48" t="s">
-        <v>434</v>
-      </c>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="93"/>
+      <c r="B48" s="77"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="99"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="77"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="99"/>
-      <c r="B50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A7:A18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1"/>
-    <hyperlink ref="B28" r:id="rId2"/>
-    <hyperlink ref="B10" r:id="rId3" location="%E6%8C%91%E6%88%9803%E6%9C%9F%E6%9C%9B%E7%BB%93%E6%9E%9C22%E7%82%B9%E8%AF%A5%E7%9D%A1%E8%A7%89%E6%97%B6%E5%80%99%E5%8E%BB%E7%9D%A1%E8%A7%89"/>
+    <hyperlink ref="B37" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2" location="%E6%8C%91%E6%88%9803%E6%9C%9F%E6%9C%9B%E7%BB%93%E6%9E%9C22%E7%82%B9%E8%AF%A5%E7%9D%A1%E8%A7%89%E6%97%B6%E5%80%99%E5%8E%BB%E7%9D%A1%E8%A7%89" display="晚上睡前："/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -67827,18 +67969,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="142"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="139"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="142"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -67863,18 +68005,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -67889,18 +68031,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="145" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="142"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -67931,48 +68073,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="140"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="139"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="136"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="139"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="140"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="143"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="140"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="143"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68001,22 +68143,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="139" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="136"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="139"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68390,13 +68532,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68407,36 +68549,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="114"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68444,15 +68586,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68466,7 +68608,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68478,7 +68620,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -68486,78 +68628,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="118" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="119"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="119"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="119"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="119"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="116"/>
+      <c r="D17" s="119"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="120"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68574,42 +68716,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="127" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="111" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -68617,10 +68759,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -68716,13 +68858,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
     </row>
@@ -68730,36 +68872,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="114"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -68767,15 +68909,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -68789,7 +68931,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -68801,7 +68943,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -68809,23 +68951,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -68834,57 +68976,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="118" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="119"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="119"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="116"/>
+      <c r="D15" s="119"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="119"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="116"/>
+      <c r="D17" s="119"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="117"/>
+      <c r="D18" s="120"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -68901,48 +69043,48 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="127" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="111" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -68980,48 +69122,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="1" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="9" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1" t="s">
-        <v>424</v>
-      </c>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="153"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="153" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="153" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="153" t="s">
+        <v>452</v>
+      </c>
+      <c r="H1" s="153" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="153" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="151"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="69">
-        <v>44610</v>
-      </c>
-      <c r="B2" s="69"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="149" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="150">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="151" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="151"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -69070,19 +69276,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="94" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="96" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69093,13 +69299,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="92"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69108,19 +69314,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="94" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="94" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69131,13 +69337,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="90"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69146,17 +69352,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="94" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69167,13 +69373,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69182,19 +69388,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="94" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="94" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69205,13 +69411,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69220,45 +69426,45 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="94" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -69294,10 +69500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -69319,7 +69525,7 @@
         <v>363</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -69333,7 +69539,7 @@
         <v>0.4055555555555555</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -69347,7 +69553,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -69361,7 +69567,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -69375,7 +69581,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -69389,7 +69595,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -69403,7 +69609,7 @@
         <v>0.375</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -69428,7 +69634,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -69440,6 +69646,34 @@
       </c>
       <c r="C10" s="33">
         <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>44614</v>
+      </c>
+      <c r="B11" s="33">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="C11" s="33">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>44615</v>
+      </c>
+      <c r="B12" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D12" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -69464,18 +69698,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>417</v>
+        <v>403</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -69509,13 +69743,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -69526,36 +69760,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="105"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="108"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="114"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="111" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -69563,15 +69797,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="109" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -69585,7 +69819,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="112"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -69597,7 +69831,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -69605,83 +69839,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108" t="s">
+      <c r="B10" s="111"/>
+      <c r="C10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="108"/>
+      <c r="D10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="116" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="117"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="112"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="112"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="117"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="114"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="117"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="114"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="117"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -69698,30 +69932,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="124" t="s">
+      <c r="D20" s="127" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70159,13 +70393,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="132" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70173,11 +70407,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70215,12 +70449,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70413,19 +70647,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -70810,7 +71044,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="137" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -70821,19 +71055,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="135"/>
+      <c r="A6" s="138"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="138" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -70844,14 +71078,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="135"/>
+      <c r="A9" s="138"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="138" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -70862,14 +71096,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="138" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -70880,7 +71114,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="135"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>

--- a/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
+++ b/Excel/2022/第二期/2022-晨间日记 -作息第2周.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="一天作记录" sheetId="11" r:id="rId1"/>
@@ -2760,6 +2760,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="23" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2767,6 +2782,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2790,32 +2808,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2823,20 +2820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2874,6 +2865,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2904,47 +2919,32 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3236,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WRY49"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -51376,7 +51376,7 @@
       </c>
     </row>
     <row r="2" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="47" t="s">
         <v>365</v>
       </c>
@@ -67421,7 +67421,7 @@
       <c r="WRY2" s="70"/>
     </row>
     <row r="3" spans="1:16041" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="71" t="s">
         <v>412</v>
       </c>
@@ -67454,7 +67454,7 @@
       </c>
     </row>
     <row r="4" spans="1:16041" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="41" t="s">
         <v>414</v>
       </c>
@@ -67487,7 +67487,7 @@
       </c>
     </row>
     <row r="5" spans="1:16041" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="36" t="s">
         <v>417</v>
       </c>
@@ -67520,7 +67520,7 @@
       </c>
     </row>
     <row r="6" spans="1:16041" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="89" t="s">
         <v>415</v>
       </c>
@@ -67549,7 +67549,7 @@
       </c>
     </row>
     <row r="7" spans="1:16041" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="98" t="s">
         <v>368</v>
       </c>
       <c r="B7" s="90" t="s">
@@ -67557,7 +67557,7 @@
       </c>
     </row>
     <row r="8" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="36" t="s">
         <v>431</v>
       </c>
@@ -67566,7 +67566,7 @@
       </c>
     </row>
     <row r="9" spans="1:16041" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="36" t="s">
         <v>432</v>
       </c>
@@ -67575,7 +67575,7 @@
       </c>
     </row>
     <row r="10" spans="1:16041" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="36" t="s">
         <v>424</v>
       </c>
@@ -67584,33 +67584,33 @@
       </c>
     </row>
     <row r="11" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="36" t="s">
         <v>425</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="C12" s="86"/>
     </row>
     <row r="13" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="36" t="s">
         <v>428</v>
       </c>
       <c r="C13" s="86"/>
     </row>
     <row r="14" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="36"/>
       <c r="C14" s="86"/>
     </row>
     <row r="15" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="91" t="s">
         <v>420</v>
       </c>
@@ -67619,19 +67619,19 @@
       </c>
     </row>
     <row r="16" spans="1:16041" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="36"/>
       <c r="C16" s="86"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="36" t="s">
         <v>426</v>
       </c>
       <c r="C17" s="86"/>
     </row>
     <row r="18" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="36" t="s">
         <v>427</v>
       </c>
@@ -67640,7 +67640,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="72" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="83" t="s">
         <v>442</v>
       </c>
@@ -67649,7 +67649,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="87" t="s">
         <v>438</v>
       </c>
@@ -67658,7 +67658,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="91" t="s">
         <v>439</v>
       </c>
@@ -67667,7 +67667,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="91" t="s">
         <v>440</v>
       </c>
@@ -67676,7 +67676,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="91" t="s">
         <v>441</v>
       </c>
@@ -67717,7 +67717,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="98" t="s">
         <v>375</v>
       </c>
       <c r="B28" s="36" t="s">
@@ -67728,7 +67728,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
+      <c r="A29" s="98"/>
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -67737,7 +67737,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
+      <c r="A30" s="98"/>
       <c r="B30" t="s">
         <v>372</v>
       </c>
@@ -67746,7 +67746,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
+      <c r="A31" s="98"/>
       <c r="B31" t="s">
         <v>373</v>
       </c>
@@ -67755,7 +67755,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
+      <c r="A32" s="98"/>
       <c r="B32" t="s">
         <v>374</v>
       </c>
@@ -67764,7 +67764,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
+      <c r="A33" s="98"/>
       <c r="B33" t="s">
         <v>369</v>
       </c>
@@ -67773,7 +67773,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
+      <c r="A34" s="98"/>
       <c r="B34" t="s">
         <v>371</v>
       </c>
@@ -67782,7 +67782,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="98" t="s">
         <v>377</v>
       </c>
       <c r="B37" s="81" t="s">
@@ -67790,13 +67790,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="75" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="77" t="s">
         <v>388</v>
       </c>
@@ -67805,7 +67805,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="77" t="s">
         <v>443</v>
       </c>
@@ -67814,7 +67814,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="77" t="s">
         <v>393</v>
       </c>
@@ -67823,7 +67823,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="78" t="s">
         <v>389</v>
       </c>
@@ -67832,7 +67832,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="77" t="s">
         <v>390</v>
       </c>
@@ -67841,7 +67841,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="79" t="s">
         <v>394</v>
       </c>
@@ -67850,7 +67850,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="93"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="77" t="s">
         <v>391</v>
       </c>
@@ -67859,7 +67859,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="93"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="77" t="s">
         <v>392</v>
       </c>
@@ -67868,7 +67868,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="93"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="77" t="s">
         <v>398</v>
       </c>
@@ -67877,11 +67877,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="93"/>
+      <c r="A48" s="98"/>
       <c r="B48" s="77"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="93"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="77"/>
     </row>
   </sheetData>
@@ -67969,18 +67969,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="145"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="142"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
@@ -68005,18 +68005,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="147"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
@@ -68031,18 +68031,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="147" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
     </row>
     <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
@@ -68073,48 +68073,48 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="148" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="149" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="143"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
     </row>
     <row r="15" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="139"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="139"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="139"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="144"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="143"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="143"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="148"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="143"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="143"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="148"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -68143,22 +68143,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="139"/>
-      <c r="B21" s="140" t="s">
+      <c r="A21" s="144"/>
+      <c r="B21" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="144" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="139"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="139"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="144"/>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -68230,22 +68230,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
@@ -68258,6 +68242,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68532,13 +68532,13 @@
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="131" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -68549,36 +68549,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="133" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -68586,15 +68586,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -68608,7 +68608,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
@@ -68620,7 +68620,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26" t="s">
@@ -68628,78 +68628,78 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="110"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="115" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="119"/>
+      <c r="D13" s="116"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="116"/>
       <c r="E14">
         <f>B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="5"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="119"/>
+      <c r="D15" s="116"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="5"/>
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="116"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="5"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="119"/>
+      <c r="D17" s="116"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="6"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="120"/>
+      <c r="D18" s="117"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
@@ -68716,42 +68716,42 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="124" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="110" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -68759,10 +68759,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -68806,20 +68806,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -68831,6 +68817,20 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68858,13 +68858,13 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="131" t="s">
         <v>3</v>
       </c>
     </row>
@@ -68872,36 +68872,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="133" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -68909,15 +68909,15 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -68931,7 +68931,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
@@ -68943,7 +68943,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -68951,23 +68951,23 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="110"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
     </row>
     <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="112" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -68976,57 +68976,57 @@
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="115" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="119"/>
+      <c r="D13" s="116"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="116"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="119"/>
+      <c r="D15" s="116"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="116"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="119"/>
+      <c r="D17" s="116"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="120"/>
+      <c r="D18" s="117"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -69043,51 +69043,60 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="124" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
     </row>
     <row r="23" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111" t="s">
+      <c r="B23" s="110"/>
+      <c r="C23" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="110" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -69104,15 +69113,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69124,7 +69124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -69139,95 +69139,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="153"/>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="96" t="s">
         <v>451</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="153" t="s">
+      <c r="H1" s="96" t="s">
         <v>453</v>
       </c>
-      <c r="I1" s="153" t="s">
+      <c r="I1" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="J1" s="151"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="95"/>
+      <c r="AE1" s="95"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="92" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="92" t="s">
         <v>447</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="92" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="150">
+      <c r="D2" s="93">
         <v>0.58819444444444446</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94" t="s">
         <v>445</v>
       </c>
-      <c r="H2" s="151" t="s">
+      <c r="H2" s="94" t="s">
         <v>455</v>
       </c>
-      <c r="I2" s="151"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -69276,19 +69276,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="99" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="102" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -69299,13 +69299,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="97"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
@@ -69314,19 +69314,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="99" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="99" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -69337,13 +69337,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="95"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="11" t="s">
         <v>43</v>
       </c>
@@ -69352,17 +69352,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="99" t="s">
         <v>355</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="99" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -69373,13 +69373,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="16">
         <v>0.27083333333333331</v>
       </c>
@@ -69388,19 +69388,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="99" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="99" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -69411,13 +69411,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="16">
         <v>0.25</v>
       </c>
@@ -69426,48 +69426,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="99" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E6:E7"/>
@@ -69483,14 +69491,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69743,13 +69743,13 @@
       <c r="A1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="131" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
@@ -69760,36 +69760,36 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="133" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="114"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="66" t="s">
@@ -69797,15 +69797,15 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -69819,7 +69819,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="66" t="s">
         <v>13</v>
       </c>
@@ -69831,7 +69831,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64" t="s">
@@ -69839,83 +69839,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111" t="s">
+      <c r="B10" s="110"/>
+      <c r="C10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="110"/>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="112" t="s">
         <v>283</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="108" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C13" s="66"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="117"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="109"/>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="5"/>
       <c r="C14" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="117"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="109"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="5"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="109"/>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
+      <c r="A16" s="113"/>
       <c r="B16" s="5"/>
       <c r="C16" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="117"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
+      <c r="A17" s="113"/>
       <c r="B17" s="5"/>
       <c r="C17" s="66"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="6"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
@@ -69932,30 +69932,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="124" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:5" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
@@ -70006,6 +70006,20 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <mergeCells count="22">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="E12:E18"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A12:A18"/>
@@ -70014,20 +70028,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -70393,13 +70393,13 @@
       <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="51"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
@@ -70407,11 +70407,11 @@
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="51"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
@@ -70449,12 +70449,12 @@
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="34"/>
       <c r="F15" s="68"/>
     </row>
@@ -70647,19 +70647,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="131"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="62"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -71044,7 +71044,7 @@
       <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="142" t="s">
         <v>298</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -71055,19 +71055,19 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="36" t="s">
         <v>327</v>
       </c>
       <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="143" t="s">
         <v>306</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -71078,14 +71078,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="138"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="36" t="s">
         <v>328</v>
       </c>
       <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="143" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -71096,14 +71096,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="36" t="s">
         <v>329</v>
       </c>
       <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="143" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -71114,7 +71114,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="138"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="36" t="s">
         <v>324</v>
       </c>
